--- a/results/pvalue_SIDER_all_enzyme_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_enzyme_AUPR+AUROC.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.626</t>
+          <t>4.651</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.042</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.441</t>
+          <t>5.567</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.972</t>
+          <t>3.967</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.312</t>
+          <t>22.294</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.221</t>
+          <t>21.202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.861</t>
+          <t>20.846</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.283</t>
+          <t>22.267</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.054</t>
+          <t>13.169</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
